--- a/Summary_Machine-Learning.xlsx
+++ b/Summary_Machine-Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Desktop/AI/CS229_Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CFFA4A-3A43-6C43-B0FE-0DC0A7DE549A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B8DA9F-67C4-B248-A217-D7762726AF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32000" windowHeight="17540" xr2:uid="{4EF1158C-5487-D44B-A912-28317A4CC1DA}"/>
   </bookViews>
@@ -254,9 +254,6 @@
     <t>This way, the degree of the polynomial d has not been trained using the test set.</t>
   </si>
   <si>
-    <t>Issues</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
@@ -378,6 +375,9 @@
   </si>
   <si>
     <t>Recommender system</t>
+  </si>
+  <si>
+    <t>Troubleshooting</t>
   </si>
 </sst>
 </file>
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BB8162-A278-2443-97AA-4129DB1F0FF0}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="183" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="183" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1965,28 +1965,28 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="I8" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -2021,14 +2021,14 @@
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -2101,13 +2101,13 @@
     <row r="18" spans="2:12">
       <c r="B18" s="17"/>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="19" spans="2:12">
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="7"/>
     </row>
@@ -2131,80 +2131,80 @@
     </row>
     <row r="24" spans="2:12">
       <c r="E24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="D29" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="E33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="E34" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="22">
       <c r="B40" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="C43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="D44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="D45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="C46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="C47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -2214,15 +2214,15 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -2235,16 +2235,16 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -2252,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -2263,22 +2263,22 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -2286,7 +2286,7 @@
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2308,60 +2308,60 @@
     <row r="7" spans="4:10" ht="22">
       <c r="D7" s="14"/>
       <c r="E7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="14"/>
       <c r="E8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="4:10">
       <c r="D9" s="14"/>
       <c r="E9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="4:10">
       <c r="D10" s="14"/>
       <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
         <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="4:10">
       <c r="E11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="4:10">
@@ -2369,25 +2369,25 @@
     </row>
     <row r="13" spans="4:10">
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="4:10">
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="4:10">
       <c r="D15" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="4:10">
       <c r="D16" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="9"/>
     </row>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="18" spans="4:15">
       <c r="D18" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="10"/>
     </row>
@@ -2407,37 +2407,37 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" t="s">
         <v>36</v>
       </c>
-      <c r="K21" t="s">
-        <v>37</v>
-      </c>
       <c r="L21" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="4:15">
       <c r="D22" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2449,42 +2449,42 @@
     </row>
     <row r="23" spans="4:15">
       <c r="F23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="4:15">
       <c r="H24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="4:15" ht="22">
       <c r="D25" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="4:15">
       <c r="E26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="4:15">
       <c r="F27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Summary_Machine-Learning.xlsx
+++ b/Summary_Machine-Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Desktop/AI/CS229_Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B8DA9F-67C4-B248-A217-D7762726AF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6C58F7-7E92-A446-8047-953FDABA6157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32000" windowHeight="17540" xr2:uid="{4EF1158C-5487-D44B-A912-28317A4CC1DA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>Methods</t>
   </si>
@@ -379,6 +379,12 @@
   <si>
     <t>Troubleshooting</t>
   </si>
+  <si>
+    <t>1/+</t>
+  </si>
+  <si>
+    <t>0/-</t>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,8 +478,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8980"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -542,11 +560,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -586,12 +622,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8980"/>
+      <color rgb="FFFFB5CB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1901,16 +1964,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BB8162-A278-2443-97AA-4129DB1F0FF0}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="183" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="27.1640625" customWidth="1"/>
   </cols>
@@ -2221,40 +2284,42 @@
       <c r="B50" t="s">
         <v>12</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="25" t="s">
         <v>45</v>
       </c>
+      <c r="E50" s="25"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
+      <c r="D51" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" t="s">
+      <c r="B52" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C52" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="B53" s="26"/>
+      <c r="C53" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="30" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2290,7 +2355,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B52:B53"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
